--- a/data1.xlsx
+++ b/data1.xlsx
@@ -461,20 +461,14 @@
           <t>トヨタ自動車</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>27200000000000.0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2200000000000.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62200000000000.0</t>
-        </is>
+      <c r="B2" t="n">
+        <v>27200000000000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2200000000000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>62200000000000</v>
       </c>
     </row>
     <row r="3">
@@ -483,20 +477,14 @@
           <t>本田技研工業</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>13100000000000.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>657400000000.0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21900000000000.0</t>
-        </is>
+      <c r="B3" t="n">
+        <v>13100000000000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>657400000000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21900000000000</v>
       </c>
     </row>
     <row r="4">
@@ -505,20 +493,14 @@
           <t>三菱商事</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>12800000000000.0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>172500000000.0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18600000000000.0</t>
-        </is>
+      <c r="B4" t="n">
+        <v>12800000000000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>172500000000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18600000000000</v>
       </c>
     </row>
     <row r="5">
@@ -527,20 +509,14 @@
           <t>日本電信電話</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>11900000000000.0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>916100000000.0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22900000000000.0</t>
-        </is>
+      <c r="B5" t="n">
+        <v>11900000000000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>916100000000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22900000000000</v>
       </c>
     </row>
     <row r="6">
@@ -549,20 +525,14 @@
           <t>日本郵政</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>11700000000000.0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>418200000000.0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>297700000000000.0</t>
-        </is>
+      <c r="B6" t="n">
+        <v>11700000000000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>418200000000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>297700000000000</v>
       </c>
     </row>
     <row r="7">
@@ -571,20 +541,14 @@
           <t>伊藤忠商事</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>10300000000000.0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>401400000000.0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11100000000000.0</t>
-        </is>
+      <c r="B7" t="n">
+        <v>10300000000000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>401400000000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11100000000000</v>
       </c>
     </row>
     <row r="8">
@@ -593,20 +557,14 @@
           <t>ソニーグループ</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>8900000000000.0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1100000000000.0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>26300000000000.0</t>
-        </is>
+      <c r="B8" t="n">
+        <v>8900000000000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1100000000000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26300000000000</v>
       </c>
     </row>
     <row r="9">
@@ -615,20 +573,14 @@
           <t>日立製作所</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>8699999999999.999</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>501600000000.0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11800000000000.0</t>
-        </is>
+      <c r="B9" t="n">
+        <v>8699999999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>501600000000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11800000000000</v>
       </c>
     </row>
     <row r="10">
@@ -637,20 +589,14 @@
           <t>イオン</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>8600000000000.0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-71000000000.0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11400000000000.0</t>
-        </is>
+      <c r="B10" t="n">
+        <v>8600000000000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-71000000000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11400000000000</v>
       </c>
     </row>
     <row r="11">
@@ -659,20 +605,14 @@
           <t>三井物産</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>8000000000000.0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>335400000000.0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12500000000000.0</t>
-        </is>
+      <c r="B11" t="n">
+        <v>8000000000000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>335400000000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12500000000000</v>
       </c>
     </row>
     <row r="12">
@@ -681,20 +621,14 @@
           <t>日産自動車</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>7800000000000.0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-448600000000.0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16399999999999.998</t>
-        </is>
+      <c r="B12" t="n">
+        <v>7800000000000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-448600000000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16399999999999</v>
       </c>
     </row>
     <row r="13">
@@ -703,20 +637,14 @@
           <t>第一生命ホールディングス</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>7800000000000.0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>363700000000.0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>63500000000000.0</t>
-        </is>
+      <c r="B13" t="n">
+        <v>7800000000000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>363700000000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>63500000000000</v>
       </c>
     </row>
     <row r="14">
@@ -725,20 +653,14 @@
           <t>ＥＮＥＯＳホールディングス</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>7600000000000.0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>113900000000.0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8000000000000.0</t>
-        </is>
+      <c r="B14" t="n">
+        <v>7600000000000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>113900000000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8000000000000</v>
       </c>
     </row>
     <row r="15">
@@ -747,20 +669,14 @@
           <t>かんぽ生命保険</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>6700000000000.0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>166100000000.0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>70099999999999.99</t>
-        </is>
+      <c r="B15" t="n">
+        <v>6700000000000</v>
+      </c>
+      <c r="C15" t="n">
+        <v>166100000000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>70099999999999</v>
       </c>
     </row>
     <row r="16">
@@ -769,20 +685,14 @@
           <t>パナソニック</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>6600000000000.0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>165000000000.0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6800000000000.0</t>
-        </is>
+      <c r="B16" t="n">
+        <v>6600000000000</v>
+      </c>
+      <c r="C16" t="n">
+        <v>165000000000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6800000000000</v>
       </c>
     </row>
     <row r="17">
@@ -791,20 +701,14 @@
           <t>丸紅</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>6300000000000.0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>225300000000.0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6900000000000.0</t>
-        </is>
+      <c r="B17" t="n">
+        <v>6300000000000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>225300000000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6900000000000</v>
       </c>
     </row>
     <row r="18">
@@ -813,20 +717,14 @@
           <t>豊田通商</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>6300000000000.0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>134600000000.0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5200000000000.0</t>
-        </is>
+      <c r="B18" t="n">
+        <v>6300000000000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>134600000000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5200000000000</v>
       </c>
     </row>
     <row r="19">
@@ -835,20 +733,14 @@
           <t>三菱ＵＦＪフィナンシャル・グループ</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>6000000000000.0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>777000000000.0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>359400000000000.0</t>
-        </is>
+      <c r="B19" t="n">
+        <v>6000000000000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>777000000000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>359400000000000</v>
       </c>
     </row>
     <row r="20">
@@ -857,20 +749,14 @@
           <t>東京電力ホールディングス</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>5800000000000.0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>180800000000.0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>12000000000000.0</t>
-        </is>
+      <c r="B20" t="n">
+        <v>5800000000000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>180800000000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>12000000000000</v>
       </c>
     </row>
     <row r="21">
@@ -879,20 +765,14 @@
           <t>セブン＆アイ・ホールディングス</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>5700000000000.0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>179200000000.0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>6900000000000.0</t>
-        </is>
+      <c r="B21" t="n">
+        <v>5700000000000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>179200000000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6900000000000</v>
       </c>
     </row>
   </sheetData>
